--- a/Excel/Server_B2SCollisionRelationConfig.xlsx
+++ b/Excel/Server_B2SCollisionRelationConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F274BCDF-F845-4923-B692-356C03252A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FF198-45E4-4B4B-A10E-9068BF8E7935}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-570" yWindow="4590" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2955" yWindow="2670" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="4">
-        <v>104936227143709</v>
+        <v>105444895096884</v>
       </c>
       <c r="F6" s="1"/>
     </row>

--- a/Excel/Server_B2SCollisionRelationConfig.xlsx
+++ b/Excel/Server_B2SCollisionRelationConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FF198-45E4-4B4B-A10E-9068BF8E7935}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896FF37-B9DF-47F4-9A78-8A788AE1158B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2955" yWindow="2670" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32520" yWindow="3370" windowWidth="28800" windowHeight="15470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,24 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,15 +29,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应碰撞体碰撞关系数据Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2S_CollisionRelationId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺手相关所有碰撞</t>
+    <t>对应碰撞处理者名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2S_ColliderHandlerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方英雄碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendlyHero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方英雄碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyHero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方小兵碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方小兵碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方建筑物碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方建筑物碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立生物碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德莱厄斯Q技能碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德莱厄斯E技能碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德莱厄斯R技能碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendlySoldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemySoldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendlyBuilds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyBuilds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creeps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2S_ColliderConfigId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应碰撞数据配置Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darius_Q_CollisionHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darius_E_CollisionHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darius_R_CollisionHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -126,6 +210,12 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,77 +554,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.08984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C6" s="3">
         <v>10001</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>105444895096884</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10001</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C7" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10002</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C8" s="3">
+        <v>10003</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10003</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
